--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_348__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_348__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5426,16 +5426,16 @@
                   <c:v>43.77766418457031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.07259117811918259</c:v>
+                  <c:v>0.07258931547403336</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>45.36139678955078</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.4574902057647705</c:v>
+                  <c:v>-0.457486480474472</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.5606082081794739</c:v>
+                  <c:v>-0.5606100559234619</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.2887889444828033</c:v>
@@ -5444,25 +5444,25 @@
                   <c:v>-0.05092589929699898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.09103035181760788</c:v>
+                  <c:v>-0.09103221446275711</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.1430527567863464</c:v>
+                  <c:v>-0.1430546194314957</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>49.93198394775391</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.4949130713939667</c:v>
+                  <c:v>-0.4949149489402771</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.6120879650115967</c:v>
+                  <c:v>-0.6120861172676086</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44.1392936706543</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.473437070846558</c:v>
+                  <c:v>-2.47343897819519</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.1381268799304962</c:v>
@@ -5471,34 +5471,34 @@
                   <c:v>45.43718719482422</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.1808224767446518</c:v>
+                  <c:v>-0.180824339389801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-10.34076976776123</c:v>
+                  <c:v>-10.34077167510986</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.2673810124397278</c:v>
+                  <c:v>-0.2673866152763367</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.1724028885364532</c:v>
+                  <c:v>-0.1723991483449936</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45.04613494873047</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.2736859321594238</c:v>
+                  <c:v>-0.2736840546131134</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.1397762894630432</c:v>
+                  <c:v>-0.139774426817894</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.3591106832027435</c:v>
+                  <c:v>-0.3591088056564331</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-0.5378706455230713</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45.28844451904297</c:v>
+                  <c:v>45.28844833374023</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-0.1836308687925339</c:v>
@@ -5510,22 +5510,22 @@
                   <c:v>-0.102215439081192</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.5544599294662476</c:v>
+                  <c:v>-0.5544618368148804</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.52781295776367</c:v>
+                  <c:v>17.52781105041504</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.022503972053528</c:v>
+                  <c:v>1.022501230239868</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1926947385072708</c:v>
+                  <c:v>0.1926891356706619</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36.64900588989258</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.4926156401634216</c:v>
+                  <c:v>-0.4926119148731232</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>27.23302459716797</c:v>
@@ -5534,142 +5534,142 @@
                   <c:v>50.47845077514648</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.1075338572263718</c:v>
+                  <c:v>-0.107535719871521</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44.60184097290039</c:v>
+                  <c:v>44.60184478759766</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-0.2117035984992981</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.1392895877361298</c:v>
+                  <c:v>-0.1392933130264282</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.2264299541711807</c:v>
+                  <c:v>-0.22643181681633</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-1.028416395187378</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.143381476402283</c:v>
+                  <c:v>-1.14337956905365</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.854498386383057</c:v>
+                  <c:v>2.854499340057373</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.06176786497235298</c:v>
+                  <c:v>-0.06176226958632469</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45.67382431030273</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.08880563825368881</c:v>
+                  <c:v>-0.08880937099456787</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.4048337638378143</c:v>
+                  <c:v>0.4048300385475159</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.1354779303073883</c:v>
+                  <c:v>-0.1354760527610779</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-0.1230079904198647</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.3612141609191895</c:v>
+                  <c:v>-0.3612160384654999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.292376846075058</c:v>
+                  <c:v>-0.292378693819046</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.181501388549805</c:v>
+                  <c:v>2.181502342224121</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.672184944152832</c:v>
+                  <c:v>0.6721840500831604</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.681043267250061</c:v>
+                  <c:v>-1.681045174598694</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>-0.4210482239723206</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.103341780602932</c:v>
+                  <c:v>-0.1033436432480812</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.5611788630485535</c:v>
+                  <c:v>-0.5611769556999207</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.3676654696464539</c:v>
+                  <c:v>0.3676635921001434</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>-1.340515375137329</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.2687786817550659</c:v>
+                  <c:v>0.2687777578830719</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.1952802836894989</c:v>
+                  <c:v>-0.1952840089797974</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.4796999990940094</c:v>
+                  <c:v>-0.4797018766403198</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.3431889712810516</c:v>
+                  <c:v>-0.3431871235370636</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>46.15060806274414</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.2741521298885345</c:v>
+                  <c:v>-0.2741539776325226</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.9931259155273438</c:v>
+                  <c:v>0.9931268692016602</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-0.3729605674743652</c:v>
+                  <c:v>-0.3729586899280548</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.177786573767662</c:v>
+                  <c:v>-0.1777847111225128</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.9368667006492615</c:v>
+                  <c:v>0.9368657469749451</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>49.30628204345703</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>45.57362365722656</c:v>
+                  <c:v>45.57362747192383</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.292925089597702</c:v>
+                  <c:v>-0.2929213643074036</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.253098130226135</c:v>
+                  <c:v>1.253097176551819</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.1034853681921959</c:v>
+                  <c:v>-0.1034835055470467</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.04980329051613808</c:v>
+                  <c:v>-0.04980142414569855</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.2014714330434799</c:v>
+                  <c:v>-0.2014732956886292</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-0.4946967661380768</c:v>
+                  <c:v>-0.4946948885917664</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1735842376947403</c:v>
+                  <c:v>0.1735805124044418</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.8102046251296997</c:v>
+                  <c:v>-0.8102027177810669</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>-0.227080762386322</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.2239199280738831</c:v>
+                  <c:v>-0.2239236533641815</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>22.61829376220703</c:v>
@@ -5681,10 +5681,10 @@
                   <c:v>0.02963358163833618</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.1399963349103928</c:v>
+                  <c:v>-0.1399944722652435</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.6502343416213989</c:v>
+                  <c:v>-0.6502380967140198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6475,7 +6475,7 @@
         <v>46.4901</v>
       </c>
       <c r="F5">
-        <v>0.07259117811918259</v>
+        <v>0.07258931547403336</v>
       </c>
       <c r="G5">
         <v>72</v>
@@ -6539,7 +6539,7 @@
         <v>45.5437</v>
       </c>
       <c r="F7">
-        <v>-0.4574902057647705</v>
+        <v>-0.457486480474472</v>
       </c>
       <c r="G7">
         <v>72</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.5606082081794739</v>
+        <v>-0.5606100559234619</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.09103035181760788</v>
+        <v>-0.09103221446275711</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-0.1430527567863464</v>
+        <v>-0.1430546194314957</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.4949130713939667</v>
+        <v>-0.4949149489402771</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.6120879650115967</v>
+        <v>-0.6120861172676086</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>40.625</v>
       </c>
       <c r="F17">
-        <v>-2.473437070846558</v>
+        <v>-2.47343897819519</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.1808224767446518</v>
+        <v>-0.180824339389801</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-10.34076976776123</v>
+        <v>-10.34077167510986</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>46.4283</v>
       </c>
       <c r="F22">
-        <v>-0.2673810124397278</v>
+        <v>-0.2673866152763367</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-0.1724028885364532</v>
+        <v>-0.1723991483449936</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-0.2736859321594238</v>
+        <v>-0.2736840546131134</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.1397762894630432</v>
+        <v>-0.139774426817894</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.3591106832027435</v>
+        <v>-0.3591088056564331</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>49.5298</v>
       </c>
       <c r="F29">
-        <v>45.28844451904297</v>
+        <v>45.28844833374023</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>-0.5544599294662476</v>
+        <v>-0.5544618368148804</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>17.52781295776367</v>
+        <v>17.52781105041504</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.022503972053528</v>
+        <v>1.022501230239868</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.1926947385072708</v>
+        <v>0.1926891356706619</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.4926156401634216</v>
+        <v>-0.4926119148731232</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>-0.1075338572263718</v>
+        <v>-0.107535719871521</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>44.6167</v>
       </c>
       <c r="F42">
-        <v>44.60184097290039</v>
+        <v>44.60184478759766</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.1392895877361298</v>
+        <v>-0.1392933130264282</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-0.2264299541711807</v>
+        <v>-0.22643181681633</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-1.143381476402283</v>
+        <v>-1.14337956905365</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>2.854498386383057</v>
+        <v>2.854499340057373</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-0.06176786497235298</v>
+        <v>-0.06176226958632469</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>-0.08880563825368881</v>
+        <v>-0.08880937099456787</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.4048337638378143</v>
+        <v>0.4048300385475159</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-0.1354779303073883</v>
+        <v>-0.1354760527610779</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-0.3612141609191895</v>
+        <v>-0.3612160384654999</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>-0.292376846075058</v>
+        <v>-0.292378693819046</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>2.181501388549805</v>
+        <v>2.181502342224121</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.672184944152832</v>
+        <v>0.6721840500831604</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-1.681043267250061</v>
+        <v>-1.681045174598694</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-0.103341780602932</v>
+        <v>-0.1033436432480812</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.5611788630485535</v>
+        <v>-0.5611769556999207</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.3676654696464539</v>
+        <v>0.3676635921001434</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.2687786817550659</v>
+        <v>0.2687777578830719</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>-0.1952802836894989</v>
+        <v>-0.1952840089797974</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.4796999990940094</v>
+        <v>-0.4797018766403198</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>-0.3431889712810516</v>
+        <v>-0.3431871235370636</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>-0.2741521298885345</v>
+        <v>-0.2741539776325226</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.9931259155273438</v>
+        <v>0.9931268692016602</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-0.3729605674743652</v>
+        <v>-0.3729586899280548</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>-0.177786573767662</v>
+        <v>-0.1777847111225128</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.9368667006492615</v>
+        <v>0.9368657469749451</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>46.3983</v>
       </c>
       <c r="F76">
-        <v>45.57362365722656</v>
+        <v>45.57362747192383</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-0.292925089597702</v>
+        <v>-0.2929213643074036</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.253098130226135</v>
+        <v>1.253097176551819</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-0.1034853681921959</v>
+        <v>-0.1034835055470467</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-0.04980329051613808</v>
+        <v>-0.04980142414569855</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-0.2014714330434799</v>
+        <v>-0.2014732956886292</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>-0.4946967661380768</v>
+        <v>-0.4946948885917664</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.1735842376947403</v>
+        <v>0.1735805124044418</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.8102046251296997</v>
+        <v>-0.8102027177810669</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>-0.2239199280738831</v>
+        <v>-0.2239236533641815</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.1399963349103928</v>
+        <v>-0.1399944722652435</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-0.6502343416213989</v>
+        <v>-0.6502380967140198</v>
       </c>
     </row>
     <row r="92" spans="1:6">
